--- a/CRIS_single-sample/additional files/NTP Forest plots paper.xlsx
+++ b/CRIS_single-sample/additional files/NTP Forest plots paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Documents\GitHub\CRIS_single-sample\CRIS_single-sample\additional files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BDF71-147E-4264-B237-6BB623396178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F4808-1DA5-4DF5-A473-9F71B750BDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26880" yWindow="1920" windowWidth="21600" windowHeight="11430" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="single-label" sheetId="2" r:id="rId1"/>
@@ -2593,7 +2593,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3360,7 +3360,7 @@
                     <a:pPr>
                       <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
+                          <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -3368,11 +3368,15 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{1C7D6798-0C66-4F92-AA8C-8ED171DAF2B9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:pPr>
                         <a:defRPr sz="1200">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:sysClr val="windowText" lastClr="000000"/>
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
@@ -3398,7 +3402,7 @@
                   <a:pPr>
                     <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -3495,7 +3499,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4528,7 +4532,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8078,7 +8082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
@@ -9034,7 +9038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
